--- a/src/main/resources/FeatureFiles/PricingFormPageTestCases.xlsx
+++ b/src/main/resources/FeatureFiles/PricingFormPageTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE485EE-5CC3-E940-9B2D-238628BED5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE7E8EA-32D2-8541-B288-A1C3887C166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>beforeEach</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>{BaseURL}+/pricing/</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
   <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -729,419 +729,419 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1149,197 +1149,197 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1347,197 +1347,197 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1545,197 +1545,197 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="D85" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="D92" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -1743,197 +1743,197 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="D104" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="D111" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -1941,186 +1941,186 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="D120" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="D123" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -2128,186 +2128,186 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="D138" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="D141" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C146" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C147" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="D148" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C149" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C151" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -2315,186 +2315,186 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="D156" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C158" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="D159" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B161" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B163" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C164" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B165" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B166" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="D166" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B168" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C168" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B169" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C169" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B171" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -2502,164 +2502,164 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="D174" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B175" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C176" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="D177" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C179" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B182" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B183" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C183" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B184" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="D184" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B185" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B186" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C186" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B187" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B188" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -2667,612 +2667,612 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="D190" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B191" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C191" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B192" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C192" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="D193" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C194" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B196" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C198" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C199" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B200" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="D200" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B201" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B202" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C202" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B203" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C203" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C204" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C205" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C206" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B207" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B209" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="D211" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B212" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C212" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B213" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B214" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="D214" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B215" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C215" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D215" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B216" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B217" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B218" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B219" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C219" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B220" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B221" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="D221" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B222" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B223" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C223" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C224" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B225" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C225" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B226" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B227" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B228" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="D230" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B231" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C231" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B232" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C232" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B233" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="D233" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B234" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C234" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B235" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B236" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B237" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B238" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C238" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B239" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C239" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B240" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="D240" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B241" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B242" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B243" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B244" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C244" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B245" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C245" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B246" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C246" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B247" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C247" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -3280,205 +3280,205 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="D249" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B250" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C250" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B251" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C251" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B252" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="D252" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B253" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C253" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D253" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B254" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C254" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B255" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B256" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B257" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C257" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B258" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C258" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B259" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C259" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="D259" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B260" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B261" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C261" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B262" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C262" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B263" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C263" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B264" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B265" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C265" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B266" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
